--- a/data/trans_orig/EXP_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en País Vasco</t>
+          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Andalucia</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en C.Valenciana</t>
+          <t>Exposición pasiva al tabaco en la vivienda en C.Valenciana (tasa de respuesta: 93,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Barcelona</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EXP_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>15045</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4230</t>
+          <t>9946</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8708</t>
+          <t>21886</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9915</t>
+          <t>22937</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7568</t>
+          <t>16474</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13295</t>
+          <t>31494</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>16228</t>
+          <t>37982</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12613</t>
+          <t>30194</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20077</t>
+          <t>49628</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71204</t>
+          <t>159810</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68809</t>
+          <t>152969</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73287</t>
+          <t>164909</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69507</t>
+          <t>166812</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66127</t>
+          <t>158255</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71854</t>
+          <t>173275</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>140711</t>
+          <t>326622</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>136862</t>
+          <t>314976</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>144326</t>
+          <t>334410</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>91,72%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4488</t>
+          <t>9653</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>5918</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6741</t>
+          <t>15318</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>11703</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5525</t>
+          <t>7985</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10131</t>
+          <t>15976</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>12018</t>
+          <t>21356</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9646</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>15388</t>
+          <t>28527</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40701</t>
+          <t>94245</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38448</t>
+          <t>88580</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42108</t>
+          <t>97980</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55123</t>
+          <t>109583</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>52522</t>
+          <t>105310</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>57128</t>
+          <t>113301</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>95824</t>
+          <t>203829</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>92454</t>
+          <t>196658</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>98196</t>
+          <t>209149</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>92,88%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12520</t>
+          <t>28206</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9905</t>
+          <t>21624</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15705</t>
+          <t>35607</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>7596</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>11753</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16758</t>
+          <t>35802</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13520</t>
+          <t>28926</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20337</t>
+          <t>44662</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70012</t>
+          <t>123503</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66827</t>
+          <t>116102</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72627</t>
+          <t>130085</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29479</t>
+          <t>46778</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27517</t>
+          <t>42621</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31132</t>
+          <t>49920</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>99491</t>
+          <t>170281</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>95912</t>
+          <t>161421</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>102729</t>
+          <t>177157</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>85,96%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16866</t>
+          <t>32971</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13940</t>
+          <t>26078</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20497</t>
+          <t>40747</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16486</t>
+          <t>32918</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13749</t>
+          <t>25532</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20308</t>
+          <t>42134</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>33352</t>
+          <t>65889</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>28508</t>
+          <t>55559</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>37926</t>
+          <t>75558</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>69377</t>
+          <t>145682</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65746</t>
+          <t>137906</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72303</t>
+          <t>152575</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,84%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>77861</t>
+          <t>154185</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>74039</t>
+          <t>144969</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>80598</t>
+          <t>161571</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>147238</t>
+          <t>299868</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>142664</t>
+          <t>290199</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>152082</t>
+          <t>310198</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>84,81%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>10023</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4143</t>
+          <t>6647</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>14642</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9508</t>
+          <t>16620</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>12048</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12540</t>
+          <t>22428</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15498</t>
+          <t>26643</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12272</t>
+          <t>21159</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18522</t>
+          <t>33131</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30465</t>
+          <t>63002</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28300</t>
+          <t>58383</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32312</t>
+          <t>66378</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62911</t>
+          <t>107162</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59879</t>
+          <t>101354</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65245</t>
+          <t>111734</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>93376</t>
+          <t>170164</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>90352</t>
+          <t>163676</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>96602</t>
+          <t>175648</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>89,25%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>5927</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>10524</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>11642</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>7448</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6449</t>
+          <t>17836</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6975</t>
+          <t>17569</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5225</t>
+          <t>11677</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9365</t>
+          <t>25024</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14977</t>
+          <t>42512</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13616</t>
+          <t>37915</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16047</t>
+          <t>45588</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,6%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>56201</t>
+          <t>112693</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>54381</t>
+          <t>106499</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57777</t>
+          <t>116887</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>71178</t>
+          <t>155205</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>68788</t>
+          <t>147750</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>72928</t>
+          <t>161097</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>93,24%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>48523</t>
+          <t>101825</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43170</t>
+          <t>89076</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>55201</t>
+          <t>115700</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>52305</t>
+          <t>103416</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>90065</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>58143</t>
+          <t>118243</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>100828</t>
+          <t>205240</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>92196</t>
+          <t>188012</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>108769</t>
+          <t>226133</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>296736</t>
+          <t>628755</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>290058</t>
+          <t>614880</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>302089</t>
+          <t>641504</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>351083</t>
+          <t>697213</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>345245</t>
+          <t>682386</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>357198</t>
+          <t>710564</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>647819</t>
+          <t>1325969</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>639878</t>
+          <t>1305076</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>656451</t>
+          <t>1343197</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>86,6%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>87,72%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20665</t>
+          <t>20621</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42965</t>
+          <t>43660</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23655</t>
+          <t>23658</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43298</t>
+          <t>43701</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>48714</t>
+          <t>48964</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>78672</t>
+          <t>78556</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>295941</t>
+          <t>295246</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>318241</t>
+          <t>318285</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>234235</t>
+          <t>233832</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>253878</t>
+          <t>253875</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>537767</t>
+          <t>537883</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>567725</t>
+          <t>567475</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>92,06%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19294</t>
+          <t>19227</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45413</t>
+          <t>45586</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21855</t>
+          <t>22769</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41502</t>
+          <t>41655</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46014</t>
+          <t>45600</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>78006</t>
+          <t>80248</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>250001</t>
+          <t>249828</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>276120</t>
+          <t>276187</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>204921</t>
+          <t>204768</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>224568</t>
+          <t>223654</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>463831</t>
+          <t>461589</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>495823</t>
+          <t>496237</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,58%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40093</t>
+          <t>39407</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>402306</t>
+          <t>406064</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4292</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12090</t>
+          <t>12608</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>46688</t>
+          <t>46317</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>453914</t>
+          <t>460185</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>84,31%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57465</t>
+          <t>53707</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>419678</t>
+          <t>420364</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73933</t>
+          <t>73415</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81731</t>
+          <t>81947</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>91881</t>
+          <t>85610</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>499107</t>
+          <t>499478</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>91,51%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59613</t>
+          <t>59346</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>102089</t>
+          <t>101247</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26417</t>
+          <t>27404</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>115529</t>
+          <t>115515</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>79501</t>
+          <t>81975</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>194876</t>
+          <t>192560</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,62%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>383337</t>
+          <t>384179</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>425813</t>
+          <t>426080</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>491761</t>
+          <t>491775</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>580873</t>
+          <t>579886</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>897840</t>
+          <t>900156</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1013215</t>
+          <t>1010741</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>82,38%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>92,5%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22633</t>
+          <t>22788</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47070</t>
+          <t>47867</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38364</t>
+          <t>36879</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>85881</t>
+          <t>84626</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>67122</t>
+          <t>68693</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>123409</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>144493</t>
+          <t>143696</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>168930</t>
+          <t>168775</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>307489</t>
+          <t>308744</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>355006</t>
+          <t>356491</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>463628</t>
+          <t>461524</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>517811</t>
+          <t>516240</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>88,26%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17128</t>
+          <t>16810</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50871</t>
+          <t>49047</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50206</t>
+          <t>50143</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>88869</t>
+          <t>87276</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>73385</t>
+          <t>74275</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>122848</t>
+          <t>123478</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>105683</t>
+          <t>107507</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>139426</t>
+          <t>139744</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>67,51%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>345383</t>
+          <t>346976</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>384046</t>
+          <t>384109</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>79,54%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>467958</t>
+          <t>467328</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>517421</t>
+          <t>516531</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>87,43%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>241841</t>
+          <t>243903</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1018829</t>
+          <t>972061</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>182830</t>
+          <t>190618</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>320540</t>
+          <t>322525</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>504059</t>
+          <t>497504</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1383805</t>
+          <t>1345868</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>908805</t>
+          <t>955573</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1685793</t>
+          <t>1683731</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>47,15%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1724352</t>
+          <t>1722367</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1862062</t>
+          <t>1854274</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>84,23%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2588721</t>
+          <t>2626658</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3468467</t>
+          <t>3475022</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,31%</t>
+          <t>87,48%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37508</t>
+          <t>36512</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53351</t>
+          <t>53250</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27856</t>
+          <t>28258</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>41157</t>
+          <t>42263</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>69445</t>
+          <t>68089</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>90143</t>
+          <t>90261</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,16%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>147992</t>
+          <t>148093</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>163835</t>
+          <t>164831</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,37%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>163719</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178126</t>
+          <t>177724</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>317183</t>
+          <t>317065</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>337881</t>
+          <t>339237</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>83,28%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26026</t>
+          <t>25198</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39778</t>
+          <t>39152</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34509</t>
+          <t>33892</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47949</t>
+          <t>48427</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>63294</t>
+          <t>62375</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>83659</t>
+          <t>82935</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80616</t>
+          <t>81242</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94368</t>
+          <t>95196</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>118400</t>
+          <t>117922</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>131840</t>
+          <t>132457</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>71,18%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>203084</t>
+          <t>203808</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>223449</t>
+          <t>224368</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15751</t>
+          <t>15776</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29995</t>
+          <t>29858</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7306</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15772</t>
+          <t>16017</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25550</t>
+          <t>25345</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>42630</t>
+          <t>42014</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>31,56%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58898</t>
+          <t>59035</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73142</t>
+          <t>73117</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,26%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28444</t>
+          <t>28199</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36910</t>
+          <t>36978</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>90479</t>
+          <t>91095</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>107559</t>
+          <t>107764</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>80,96%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32289</t>
+          <t>33124</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49266</t>
+          <t>50651</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38733</t>
+          <t>37734</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56122</t>
+          <t>55798</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>76620</t>
+          <t>77014</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>101007</t>
+          <t>101715</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>33,74%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>101620</t>
+          <t>100235</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>118597</t>
+          <t>117762</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,6%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94483</t>
+          <t>94807</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>111872</t>
+          <t>112871</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>200484</t>
+          <t>199776</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>224871</t>
+          <t>224477</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>74,46%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12971</t>
+          <t>12953</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24360</t>
+          <t>23361</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10580</t>
+          <t>11082</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22186</t>
+          <t>21471</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>26130</t>
+          <t>25520</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>41752</t>
+          <t>41708</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>30,94%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25751</t>
+          <t>26750</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37140</t>
+          <t>37158</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62501</t>
+          <t>63216</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>74107</t>
+          <t>73605</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>93046</t>
+          <t>93090</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>108668</t>
+          <t>109278</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>81,07%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7179</t>
+          <t>7166</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13906</t>
+          <t>14101</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7603</t>
+          <t>8159</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16422</t>
+          <t>16667</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17302</t>
+          <t>17230</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28215</t>
+          <t>28256</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11540</t>
+          <t>11345</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18267</t>
+          <t>18280</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>34328</t>
+          <t>34083</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>43147</t>
+          <t>42591</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>67,64%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>47981</t>
+          <t>47940</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>58894</t>
+          <t>58966</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>77,39%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>154050</t>
+          <t>152590</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>186659</t>
+          <t>186142</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>145582</t>
+          <t>144424</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>177240</t>
+          <t>176391</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>304870</t>
+          <t>307081</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>351046</t>
+          <t>352388</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>26,3%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>450414</t>
+          <t>450931</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>483023</t>
+          <t>484483</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>75,82%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>525350</t>
+          <t>526199</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>557008</t>
+          <t>558166</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>79,28%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>988617</t>
+          <t>987275</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1034793</t>
+          <t>1032582</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>73,7%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>77,08%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EXP_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15045</t>
+          <t>31893</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>22434</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21886</t>
+          <t>44756</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22937</t>
+          <t>35188</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16474</t>
+          <t>25498</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31494</t>
+          <t>47325</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>37982</t>
+          <t>67081</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>30194</t>
+          <t>52830</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>49628</t>
+          <t>84960</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>159810</t>
+          <t>333446</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>152969</t>
+          <t>320583</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>164909</t>
+          <t>342905</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>375</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>166812</t>
+          <t>268850</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>158255</t>
+          <t>256713</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>173275</t>
+          <t>278540</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>326622</t>
+          <t>602297</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>314976</t>
+          <t>584418</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>334410</t>
+          <t>616548</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>87,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>92,11%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>174855</t>
+          <t>365339</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>174855</t>
+          <t>365339</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>174855</t>
+          <t>365339</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>419</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>189749</t>
+          <t>304038</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>189749</t>
+          <t>304038</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>189749</t>
+          <t>304038</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>364604</t>
+          <t>669378</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>364604</t>
+          <t>669378</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>364604</t>
+          <t>669378</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9653</t>
+          <t>27646</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5918</t>
+          <t>18726</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15318</t>
+          <t>41318</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11703</t>
+          <t>34818</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7985</t>
+          <t>26390</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15976</t>
+          <t>45723</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>21356</t>
+          <t>62465</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>46922</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28527</t>
+          <t>78919</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94245</t>
+          <t>284856</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88580</t>
+          <t>271184</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97980</t>
+          <t>293776</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>325</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>109583</t>
+          <t>236537</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>105310</t>
+          <t>225632</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>113301</t>
+          <t>244965</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>603</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>203829</t>
+          <t>521392</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>196658</t>
+          <t>504938</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>209149</t>
+          <t>536935</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>86,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>91,96%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>103898</t>
+          <t>312502</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>103898</t>
+          <t>312502</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>103898</t>
+          <t>312502</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>121286</t>
+          <t>271355</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>121286</t>
+          <t>271355</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>121286</t>
+          <t>271355</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>671</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>225185</t>
+          <t>583857</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>225185</t>
+          <t>583857</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>225185</t>
+          <t>583857</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28206</t>
+          <t>26704</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21624</t>
+          <t>17844</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35607</t>
+          <t>39115</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7596</t>
+          <t>7987</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11753</t>
+          <t>13316</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>35802</t>
+          <t>34691</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>28926</t>
+          <t>24794</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>44662</t>
+          <t>48373</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>123503</t>
+          <t>216536</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>116102</t>
+          <t>204125</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>130085</t>
+          <t>225396</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46778</t>
+          <t>90576</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42621</t>
+          <t>85247</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49920</t>
+          <t>94229</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>348</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>170281</t>
+          <t>307112</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>161421</t>
+          <t>293430</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>177157</t>
+          <t>317009</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>85,96%</t>
+          <t>92,75%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151709</t>
+          <t>243240</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151709</t>
+          <t>243240</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151709</t>
+          <t>243240</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>54374</t>
+          <t>98563</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>54374</t>
+          <t>98563</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>54374</t>
+          <t>98563</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>385</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>206083</t>
+          <t>341803</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>206083</t>
+          <t>341803</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>206083</t>
+          <t>341803</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32971</t>
+          <t>81715</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26078</t>
+          <t>62931</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40747</t>
+          <t>105002</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32918</t>
+          <t>78513</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25532</t>
+          <t>64761</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42134</t>
+          <t>94296</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>166</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>65889</t>
+          <t>160228</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>55559</t>
+          <t>137236</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>75558</t>
+          <t>187571</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>18,61%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>145682</t>
+          <t>468890</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137906</t>
+          <t>445603</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>152575</t>
+          <t>487674</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,19%</t>
+          <t>80,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>516</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>154185</t>
+          <t>378714</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>144969</t>
+          <t>362931</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>161571</t>
+          <t>392466</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>82,83%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>958</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>299868</t>
+          <t>847603</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>290199</t>
+          <t>820260</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>310198</t>
+          <t>870595</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>86,38%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>178653</t>
+          <t>550605</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>178653</t>
+          <t>550605</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>178653</t>
+          <t>550605</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>622</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>187103</t>
+          <t>457227</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>187103</t>
+          <t>457227</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>187103</t>
+          <t>457227</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>365757</t>
+          <t>1007831</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>365757</t>
+          <t>1007831</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>365757</t>
+          <t>1007831</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10023</t>
+          <t>40928</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6647</t>
+          <t>28551</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14642</t>
+          <t>56949</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>70197</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12048</t>
+          <t>58451</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22428</t>
+          <t>83719</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>26643</t>
+          <t>111125</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21159</t>
+          <t>93500</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>33131</t>
+          <t>133487</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63002</t>
+          <t>184738</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58383</t>
+          <t>168717</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66378</t>
+          <t>197115</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>81,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>431</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>107162</t>
+          <t>303860</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>101354</t>
+          <t>290338</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>111734</t>
+          <t>315606</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,57%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>77,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>601</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>170164</t>
+          <t>488598</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>163676</t>
+          <t>466236</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>175648</t>
+          <t>506223</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>84,41%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73025</t>
+          <t>225666</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73025</t>
+          <t>225666</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73025</t>
+          <t>225666</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>530</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>123782</t>
+          <t>374057</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>123782</t>
+          <t>374057</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>123782</t>
+          <t>374057</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>734</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>196807</t>
+          <t>599723</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>196807</t>
+          <t>599723</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>196807</t>
+          <t>599723</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,102 +2451,102 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5927</t>
+          <t>30948</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>17420</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10524</t>
+          <t>47401</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11642</t>
+          <t>66894</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7448</t>
+          <t>50941</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17836</t>
+          <t>87002</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>80</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>17569</t>
+          <t>97843</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11677</t>
+          <t>76959</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25024</t>
+          <t>124640</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>42512</t>
+          <t>129646</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>37915</t>
+          <t>113193</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45588</t>
+          <t>143174</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>532</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>112693</t>
+          <t>418772</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>106499</t>
+          <t>398664</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116887</t>
+          <t>434725</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>590</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>155205</t>
+          <t>548418</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>147750</t>
+          <t>521621</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>161097</t>
+          <t>569302</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>88,09%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>48439</t>
+          <t>160594</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>48439</t>
+          <t>160594</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48439</t>
+          <t>160594</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>598</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>124335</t>
+          <t>485666</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>124335</t>
+          <t>485666</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>124335</t>
+          <t>485666</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>172774</t>
+          <t>646261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>172774</t>
+          <t>646261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>172774</t>
+          <t>646261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>101825</t>
+          <t>239834</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>89076</t>
+          <t>207442</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>115700</t>
+          <t>276801</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>103416</t>
+          <t>293598</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>90065</t>
+          <t>263179</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>118243</t>
+          <t>323541</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>560</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>205240</t>
+          <t>533431</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>188012</t>
+          <t>488148</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>226133</t>
+          <t>584082</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>628755</t>
+          <t>1618112</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>614880</t>
+          <t>1581145</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>641504</t>
+          <t>1650504</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>87,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>2310</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>697213</t>
+          <t>1697309</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>682386</t>
+          <t>1667366</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>710564</t>
+          <t>1727728</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3858</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1325969</t>
+          <t>3315422</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1305076</t>
+          <t>3264771</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1343197</t>
+          <t>3360705</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>87,32%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>730580</t>
+          <t>1857946</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>730580</t>
+          <t>1857946</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>730580</t>
+          <t>1857946</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2392</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>800629</t>
+          <t>1990907</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>800629</t>
+          <t>1990907</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>800629</t>
+          <t>1990907</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>4372</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1531209</t>
+          <t>3848853</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1531209</t>
+          <t>3848853</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1531209</t>
+          <t>3848853</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30513</t>
+          <t>45077</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20621</t>
+          <t>36512</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43660</t>
+          <t>53250</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31980</t>
+          <t>34238</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23658</t>
+          <t>28258</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43701</t>
+          <t>42263</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>79315</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>48964</t>
+          <t>68089</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>78556</t>
+          <t>90261</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>22,16%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>308393</t>
+          <t>156266</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>295246</t>
+          <t>148093</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>318285</t>
+          <t>164831</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>494</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>245553</t>
+          <t>171744</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>233832</t>
+          <t>163719</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>253875</t>
+          <t>177724</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>553946</t>
+          <t>328011</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>537883</t>
+          <t>317065</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>567475</t>
+          <t>339237</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>83,28%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>338906</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>338906</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>338906</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>601</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>277533</t>
+          <t>205982</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>277533</t>
+          <t>205982</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>277533</t>
+          <t>205982</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>616439</t>
+          <t>407326</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>616439</t>
+          <t>407326</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>616439</t>
+          <t>407326</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29339</t>
+          <t>32424</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19227</t>
+          <t>25198</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45586</t>
+          <t>39152</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31001</t>
+          <t>40930</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22769</t>
+          <t>33892</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41655</t>
+          <t>48427</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>177</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>60340</t>
+          <t>73354</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>45600</t>
+          <t>62375</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>80248</t>
+          <t>82935</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>266075</t>
+          <t>87970</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>249828</t>
+          <t>81242</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>276187</t>
+          <t>95196</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>215422</t>
+          <t>125419</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>204768</t>
+          <t>117922</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>223654</t>
+          <t>132457</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>75,39%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>537</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>481497</t>
+          <t>213389</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>461589</t>
+          <t>203808</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>496237</t>
+          <t>224368</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>295414</t>
+          <t>120394</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>295414</t>
+          <t>120394</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>295414</t>
+          <t>120394</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>423</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>246423</t>
+          <t>166349</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>246423</t>
+          <t>166349</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>246423</t>
+          <t>166349</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>714</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>541837</t>
+          <t>286743</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>541837</t>
+          <t>286743</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>541837</t>
+          <t>286743</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>265726</t>
+          <t>22012</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39407</t>
+          <t>15776</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>406064</t>
+          <t>29858</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7523</t>
+          <t>11274</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12608</t>
+          <t>16017</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>273250</t>
+          <t>33286</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>46317</t>
+          <t>25345</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>460185</t>
+          <t>42014</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>31,56%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>194045</t>
+          <t>66881</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53707</t>
+          <t>59035</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>420364</t>
+          <t>73117</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78500</t>
+          <t>32942</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73415</t>
+          <t>28199</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81947</t>
+          <t>36978</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>74,5%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>272545</t>
+          <t>99823</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>85610</t>
+          <t>91095</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>499478</t>
+          <t>107764</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>74,99%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>80,96%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459771</t>
+          <t>88893</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459771</t>
+          <t>88893</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459771</t>
+          <t>88893</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>86023</t>
+          <t>44216</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>86023</t>
+          <t>44216</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>86023</t>
+          <t>44216</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>311</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>545795</t>
+          <t>133109</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>545795</t>
+          <t>133109</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>545795</t>
+          <t>133109</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77448</t>
+          <t>40743</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59346</t>
+          <t>33124</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>101247</t>
+          <t>50651</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71961</t>
+          <t>46821</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27404</t>
+          <t>37734</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>115515</t>
+          <t>55798</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>177</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>149409</t>
+          <t>87564</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>81975</t>
+          <t>77014</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>192560</t>
+          <t>101715</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>33,74%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>407978</t>
+          <t>110143</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>384179</t>
+          <t>100235</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>426080</t>
+          <t>117762</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>535329</t>
+          <t>103784</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>491775</t>
+          <t>94807</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>579886</t>
+          <t>112871</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>448</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>943307</t>
+          <t>213927</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>900156</t>
+          <t>199776</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1010741</t>
+          <t>224477</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>70,96%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>74,46%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>485426</t>
+          <t>150886</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>485426</t>
+          <t>150886</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>485426</t>
+          <t>150886</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>607290</t>
+          <t>150605</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>607290</t>
+          <t>150605</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>607290</t>
+          <t>150605</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>625</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1092716</t>
+          <t>301491</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1092716</t>
+          <t>301491</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1092716</t>
+          <t>301491</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33187</t>
+          <t>17838</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22788</t>
+          <t>12953</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47867</t>
+          <t>23361</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>65317</t>
+          <t>15643</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36879</t>
+          <t>11082</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>84626</t>
+          <t>21471</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>98504</t>
+          <t>33481</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>68693</t>
+          <t>25520</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>123409</t>
+          <t>41708</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>30,94%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>158376</t>
+          <t>32273</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>143696</t>
+          <t>26750</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>168775</t>
+          <t>37158</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,01%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,1%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>328053</t>
+          <t>69044</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>308744</t>
+          <t>63216</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>356491</t>
+          <t>73605</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>192</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>486429</t>
+          <t>101317</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>461524</t>
+          <t>93090</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>516240</t>
+          <t>109278</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>81,07%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>191563</t>
+          <t>50111</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>191563</t>
+          <t>50111</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>191563</t>
+          <t>50111</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>393370</t>
+          <t>84687</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>393370</t>
+          <t>84687</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>393370</t>
+          <t>84687</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>263</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>584933</t>
+          <t>134798</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>584933</t>
+          <t>134798</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>584933</t>
+          <t>134798</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31135</t>
+          <t>10701</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16810</t>
+          <t>7166</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49047</t>
+          <t>14101</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65543</t>
+          <t>11592</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50143</t>
+          <t>8159</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>87276</t>
+          <t>16667</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>96678</t>
+          <t>22293</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>74275</t>
+          <t>17230</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>123478</t>
+          <t>28256</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>125419</t>
+          <t>14745</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>107507</t>
+          <t>11345</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>139744</t>
+          <t>18280</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>368709</t>
+          <t>39158</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>346976</t>
+          <t>34083</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>384109</t>
+          <t>42591</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>139</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>494128</t>
+          <t>53903</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>467328</t>
+          <t>47940</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>516531</t>
+          <t>58966</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>77,39%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>156554</t>
+          <t>25446</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>156554</t>
+          <t>25446</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>156554</t>
+          <t>25446</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>434252</t>
+          <t>50750</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>434252</t>
+          <t>50750</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>434252</t>
+          <t>50750</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>196</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>590806</t>
+          <t>76196</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>590806</t>
+          <t>76196</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>590806</t>
+          <t>76196</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>467349</t>
+          <t>168794</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>243903</t>
+          <t>152590</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>972061</t>
+          <t>186142</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>273325</t>
+          <t>160500</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>190618</t>
+          <t>144424</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>322525</t>
+          <t>176391</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>772</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>740674</t>
+          <t>329293</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>497504</t>
+          <t>307081</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1345868</t>
+          <t>352388</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>26,3%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1460285</t>
+          <t>468279</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>955573</t>
+          <t>450931</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1683731</t>
+          <t>484483</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1771567</t>
+          <t>542090</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1722367</t>
+          <t>526199</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1854274</t>
+          <t>558166</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3812</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3231852</t>
+          <t>1010370</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2626658</t>
+          <t>987275</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3475022</t>
+          <t>1032582</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>73,7%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>77,08%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1927634</t>
+          <t>637073</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1927634</t>
+          <t>637073</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1927634</t>
+          <t>637073</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2044892</t>
+          <t>702590</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2044892</t>
+          <t>702590</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2044892</t>
+          <t>702590</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>3972526</t>
+          <t>1339663</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>3972526</t>
+          <t>1339663</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>3972526</t>
+          <t>1339663</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45077</t>
+          <t>15045</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36512</t>
+          <t>9946</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53250</t>
+          <t>21886</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34238</t>
+          <t>22937</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28258</t>
+          <t>16474</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42263</t>
+          <t>31494</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>79315</t>
+          <t>37982</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>68089</t>
+          <t>30194</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>90261</t>
+          <t>49628</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>428</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>156266</t>
+          <t>159810</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>148093</t>
+          <t>152969</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>164831</t>
+          <t>164909</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>442</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>171744</t>
+          <t>166812</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163719</t>
+          <t>158255</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>177724</t>
+          <t>173275</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>86,28%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>870</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>328011</t>
+          <t>326622</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>317065</t>
+          <t>314976</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>339237</t>
+          <t>334410</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>80,53%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>91,72%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>201343</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>201343</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>201343</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>496</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>205982</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>205982</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>205982</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>407326</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>407326</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>407326</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32424</t>
+          <t>9653</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25198</t>
+          <t>5918</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39152</t>
+          <t>15318</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40930</t>
+          <t>11703</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33892</t>
+          <t>7985</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48427</t>
+          <t>15976</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>73354</t>
+          <t>21356</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>62375</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>82935</t>
+          <t>28527</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87970</t>
+          <t>94245</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81242</t>
+          <t>88580</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95196</t>
+          <t>97980</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,48%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>125419</t>
+          <t>109583</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117922</t>
+          <t>105310</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>132457</t>
+          <t>113301</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,39%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>213389</t>
+          <t>203829</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>203808</t>
+          <t>196658</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>224368</t>
+          <t>209149</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>92,88%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>379</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>166349</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>166349</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>166349</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>649</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>286743</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>286743</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>286743</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22012</t>
+          <t>28206</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15776</t>
+          <t>21624</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29858</t>
+          <t>35607</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11274</t>
+          <t>7596</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16017</t>
+          <t>11753</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>33286</t>
+          <t>35802</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25345</t>
+          <t>28926</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>42014</t>
+          <t>44662</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66881</t>
+          <t>123503</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59035</t>
+          <t>116102</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73117</t>
+          <t>130085</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32942</t>
+          <t>46778</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28199</t>
+          <t>42621</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36978</t>
+          <t>49920</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>579</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>99823</t>
+          <t>170281</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>91095</t>
+          <t>161421</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>107764</t>
+          <t>177157</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>85,96%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>480</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88893</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>88893</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88893</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>198</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44216</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>44216</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>44216</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>678</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>133109</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>133109</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>133109</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40743</t>
+          <t>32971</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33124</t>
+          <t>26078</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50651</t>
+          <t>40747</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46821</t>
+          <t>32918</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37734</t>
+          <t>25532</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55798</t>
+          <t>42134</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>87564</t>
+          <t>65889</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>77014</t>
+          <t>55559</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>101715</t>
+          <t>75558</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>110143</t>
+          <t>145682</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100235</t>
+          <t>137906</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>117762</t>
+          <t>152575</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>103784</t>
+          <t>154185</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94807</t>
+          <t>144969</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>112871</t>
+          <t>161571</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>870</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>213927</t>
+          <t>299868</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>199776</t>
+          <t>290199</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>224477</t>
+          <t>310198</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>70,96%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>66,26%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>74,46%</t>
+          <t>84,81%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>150886</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>150886</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>150886</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>552</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>150605</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>150605</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>150605</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>301491</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>301491</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>301491</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17838</t>
+          <t>10023</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12953</t>
+          <t>6647</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23361</t>
+          <t>14642</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15643</t>
+          <t>16620</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11082</t>
+          <t>12048</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21471</t>
+          <t>22428</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>33481</t>
+          <t>26643</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25520</t>
+          <t>21159</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>41708</t>
+          <t>33131</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32273</t>
+          <t>63002</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26750</t>
+          <t>58383</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37158</t>
+          <t>66378</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,15%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>351</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>69044</t>
+          <t>107162</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>63216</t>
+          <t>101354</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73605</t>
+          <t>111734</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>539</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>101317</t>
+          <t>170164</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>93090</t>
+          <t>163676</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>109278</t>
+          <t>175648</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,07%</t>
+          <t>89,25%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>50111</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>50111</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>50111</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>407</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>84687</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>84687</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>84687</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>626</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>134798</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>134798</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>134798</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10701</t>
+          <t>5927</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7166</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14101</t>
+          <t>10524</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11592</t>
+          <t>11642</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8159</t>
+          <t>7448</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16667</t>
+          <t>17836</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>22293</t>
+          <t>17569</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17230</t>
+          <t>11677</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28256</t>
+          <t>25024</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14745</t>
+          <t>42512</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11345</t>
+          <t>37915</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18280</t>
+          <t>45588</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>39158</t>
+          <t>112693</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>34083</t>
+          <t>106499</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>42591</t>
+          <t>116887</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>53903</t>
+          <t>155205</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>47940</t>
+          <t>147750</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>58966</t>
+          <t>161097</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>93,24%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25446</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25446</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25446</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>50750</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50750</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>50750</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>467</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>76196</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>76196</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>76196</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>168794</t>
+          <t>101825</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>152590</t>
+          <t>89076</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>186142</t>
+          <t>115700</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>160500</t>
+          <t>103416</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>144424</t>
+          <t>90065</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>176391</t>
+          <t>118243</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>584</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>329293</t>
+          <t>205240</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>307081</t>
+          <t>188012</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>352388</t>
+          <t>226133</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>468279</t>
+          <t>628755</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>450931</t>
+          <t>614880</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>484483</t>
+          <t>641504</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>2091</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>542090</t>
+          <t>697213</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>526199</t>
+          <t>682386</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>558166</t>
+          <t>710564</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>74,89%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1010370</t>
+          <t>1325969</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>987275</t>
+          <t>1305076</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1032582</t>
+          <t>1343197</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>86,6%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>87,72%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>637073</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>637073</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>637073</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>702590</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>702590</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>702590</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1339663</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1339663</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1339663</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
